--- a/Excel/Windows Data.xlsx
+++ b/Excel/Windows Data.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ground Floor" sheetId="1" r:id="rId1"/>
     <sheet name="Second Floor" sheetId="2" r:id="rId2"/>
+    <sheet name="Third Floor" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ground Floor'!$A$1:$C$60</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="113">
   <si>
     <t>Emergency Room</t>
   </si>
@@ -316,6 +317,48 @@
   </si>
   <si>
     <t>0.6L-0.8R</t>
+  </si>
+  <si>
+    <t>Size of Partition</t>
+  </si>
+  <si>
+    <t>Partition Size</t>
+  </si>
+  <si>
+    <t>5 Bed Ward</t>
+  </si>
+  <si>
+    <t>Hallway of 3rd Floor</t>
+  </si>
+  <si>
+    <t>Solarium</t>
+  </si>
+  <si>
+    <t>Stretcher nook</t>
+  </si>
+  <si>
+    <t>Personel's Dining</t>
+  </si>
+  <si>
+    <t>Personel's Dining Right</t>
+  </si>
+  <si>
+    <t>Admitting</t>
+  </si>
+  <si>
+    <t>Billing</t>
+  </si>
+  <si>
+    <t>Cashier</t>
+  </si>
+  <si>
+    <t>Adminting/Billing/Cashier</t>
+  </si>
+  <si>
+    <t>Personel Dining's CR</t>
+  </si>
+  <si>
+    <t>Female / Male Toilet</t>
   </si>
 </sst>
 </file>
@@ -374,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -385,20 +428,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -411,6 +445,20 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,11 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,593 +782,825 @@
     <col min="1" max="1" width="8.85546875" style="3"/>
     <col min="2" max="2" width="39" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>2</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="7" t="s">
+      <c r="D1" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11">
+        <f>A2/C2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="D3" s="11">
+        <f>A2/C3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="D4" s="11">
+        <f>A2/C4</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>1.2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="7" t="s">
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="11">
+        <f t="shared" ref="D5" si="0">A5/C5</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="7" t="s">
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11">
+        <f>A$5/C6</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="7" t="s">
+      <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="11">
+        <f>A$5/C7</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7" t="s">
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="11">
+        <f t="shared" ref="D8:D15" si="1">A$5/C8</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="7" t="s">
+      <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="11">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="7" t="s">
+      <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="7" t="s">
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="11">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="7" t="s">
+      <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="7" t="s">
+      <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="11">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="7" t="s">
+      <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="C15" s="7">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
         <v>1.4</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="7" t="s">
+      <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11">
+        <f>A$16/C16</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="7" t="s">
+      <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11">
+        <f t="shared" ref="D17:D29" si="2">A$16/C17</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="7" t="s">
+      <c r="C18" s="7">
+        <v>2</v>
+      </c>
+      <c r="D18" s="11">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="7" t="s">
+      <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="7" t="s">
+      <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="7" t="s">
+      <c r="C21" s="7">
+        <v>2</v>
+      </c>
+      <c r="D21" s="11">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="7" t="s">
+      <c r="C22" s="7">
+        <v>2</v>
+      </c>
+      <c r="D22" s="11">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="7" t="s">
+      <c r="C23" s="7">
+        <v>2</v>
+      </c>
+      <c r="D23" s="11">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="7" t="s">
+      <c r="C24" s="7">
+        <v>2</v>
+      </c>
+      <c r="D24" s="11">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="7" t="s">
+      <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="11">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="7" t="s">
+      <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="11">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="7" t="s">
+      <c r="C27" s="7">
+        <v>2</v>
+      </c>
+      <c r="D27" s="11">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="7" t="s">
+      <c r="C28" s="7">
+        <v>2</v>
+      </c>
+      <c r="D28" s="11">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="C29" s="7">
+        <v>2</v>
+      </c>
+      <c r="D29" s="11">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="7" t="s">
+      <c r="C30" s="7">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11">
+        <f>A$30/C30</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="7" t="s">
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="11">
+        <f t="shared" ref="D31:D37" si="3">A$30/C31</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="7" t="s">
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="11">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="7" t="s">
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33" s="11">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="7" t="s">
+      <c r="C34" s="7">
+        <v>1</v>
+      </c>
+      <c r="D34" s="11">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="7" t="s">
+      <c r="C35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35" s="11">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="7" t="s">
+      <c r="C36" s="7">
+        <v>1</v>
+      </c>
+      <c r="D36" s="11">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
+      <c r="D37" s="11">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
         <v>1.6</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="7" t="s">
+      <c r="C38" s="7">
+        <v>2</v>
+      </c>
+      <c r="D38" s="11">
+        <f>A$38/C38</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="7" t="s">
+      <c r="C39" s="7">
+        <v>2</v>
+      </c>
+      <c r="D39" s="11">
+        <f t="shared" ref="D39:D41" si="4">A$38/C39</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="7" t="s">
+      <c r="C40" s="7">
+        <v>2</v>
+      </c>
+      <c r="D40" s="11">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+      <c r="D41" s="11">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
         <v>2.4</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+      <c r="D42" s="11">
+        <f>A42/C42</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
         <v>0.9</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
+      <c r="C43" s="7">
+        <v>1</v>
+      </c>
+      <c r="D43" s="11">
+        <f>A43/C43</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
         <v>2.44</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+      <c r="D44" s="11">
+        <f>A44/C44</f>
+        <v>0.40666666666666668</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
         <v>1.28</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
-        <v>1</v>
-      </c>
-      <c r="B46" s="9" t="s">
+      <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="11">
+        <f>A45/C45</f>
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>1</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
+      <c r="C46" s="7">
+        <v>1</v>
+      </c>
+      <c r="D46" s="11">
+        <f>A46/C46</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
         <v>2.4</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="7" t="s">
+      <c r="D47" s="11">
+        <f>A$47/C47</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="B48" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="7" t="s">
+      <c r="D48" s="11">
+        <f t="shared" ref="D48:D52" si="5">A$47/C48</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="7" t="s">
+      <c r="D49" s="11">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="B50" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="7" t="s">
+      <c r="D50" s="11">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="7" t="s">
+      <c r="D51" s="11">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
+      <c r="B52" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
+      <c r="D52" s="11">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
         <v>4.2</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
+      <c r="D53" s="11">
+        <f>A53/C53</f>
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
         <v>1.5</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
+      <c r="C54" s="7">
+        <v>1</v>
+      </c>
+      <c r="D54" s="11">
+        <f>A54/C54</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
         <v>3.35</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
+      <c r="C55" s="7">
+        <v>1</v>
+      </c>
+      <c r="D55" s="11">
+        <f>A55/C55</f>
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
         <v>5.6</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="10">
+      <c r="C56" s="7">
+        <v>1</v>
+      </c>
+      <c r="D56" s="11">
+        <f>A56/C56</f>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="12">
         <v>1.8</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
-      <c r="B58" s="7" t="s">
+      <c r="C57" s="7">
+        <v>1</v>
+      </c>
+      <c r="D57" s="11">
+        <f>A$57/C57</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
+      <c r="B58" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
-      <c r="B59" s="7" t="s">
+      <c r="D58" s="11">
+        <f t="shared" ref="D58:D59" si="6">A$57/C58</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="12"/>
+      <c r="B59" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
+      <c r="D59" s="11">
+        <f t="shared" si="6"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="6">
-        <v>1</v>
+      <c r="C60" s="7">
+        <v>1</v>
+      </c>
+      <c r="D60" s="11">
+        <f>A60/C60</f>
+        <v>2.2000000000000002</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C60">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Maintenance Office"/>
-        <filter val="Maintenance Office CR"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A57:A59"/>
     <mergeCell ref="A2:A4"/>
@@ -1332,6 +1611,7 @@
     <mergeCell ref="A47:A52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1340,7 +1620,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,22 +1634,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1394,7 +1674,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="14">
         <v>2.4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1408,7 +1688,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="3" t="s">
         <v>62</v>
       </c>
@@ -1420,7 +1700,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="3" t="s">
         <v>63</v>
       </c>
@@ -1432,7 +1712,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="3" t="s">
         <v>64</v>
       </c>
@@ -1444,7 +1724,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="3" t="s">
         <v>65</v>
       </c>
@@ -1456,7 +1736,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="3" t="s">
         <v>66</v>
       </c>
@@ -1468,7 +1748,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="14">
         <v>0.6</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1482,7 +1762,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="3" t="s">
         <v>67</v>
       </c>
@@ -1494,7 +1774,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="3" t="s">
         <v>68</v>
       </c>
@@ -1506,7 +1786,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="3" t="s">
         <v>69</v>
       </c>
@@ -1518,7 +1798,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="14">
         <v>1.4</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1532,7 +1812,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="3" t="s">
         <v>71</v>
       </c>
@@ -1544,7 +1824,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="3" t="s">
         <v>72</v>
       </c>
@@ -1556,7 +1836,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="3" t="s">
         <v>73</v>
       </c>
@@ -1568,7 +1848,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="3" t="s">
         <v>74</v>
       </c>
@@ -1580,7 +1860,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="3" t="s">
         <v>75</v>
       </c>
@@ -1592,7 +1872,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="14">
         <v>1.2</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1606,7 +1886,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="3" t="s">
         <v>77</v>
       </c>
@@ -1618,7 +1898,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="3" t="s">
         <v>70</v>
       </c>
@@ -1630,7 +1910,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="3" t="s">
         <v>78</v>
       </c>
@@ -1698,7 +1978,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="14">
         <v>0.8</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1712,7 +1992,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="3" t="s">
         <v>84</v>
       </c>
@@ -1724,7 +2004,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="3" t="s">
         <v>85</v>
       </c>
@@ -1736,7 +2016,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="3" t="s">
         <v>86</v>
       </c>
@@ -1748,7 +2028,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="3" t="s">
         <v>87</v>
       </c>
@@ -1760,7 +2040,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="14">
         <v>1.6</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1774,7 +2054,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="3" t="s">
         <v>89</v>
       </c>
@@ -1786,7 +2066,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="3" t="s">
         <v>90</v>
       </c>
@@ -1798,7 +2078,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="3" t="s">
         <v>91</v>
       </c>
@@ -1812,14 +2092,311 @@
   </sheetData>
   <autoFilter ref="A1:F35"/>
   <mergeCells count="6">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2.4</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <f>A3/C3</f>
+        <v>0.6</v>
+      </c>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f>A3/C4</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2.7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f>A5/C5</f>
+        <v>2.7</v>
+      </c>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.4</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f>A6/C6</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f>A6/C7</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3.33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f>A8/C8</f>
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.6</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f>A9/C9</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f>A9/C10</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.2</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <f>A11/C11</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f>A11/C12</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f>A11/C13</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f>A14/C14</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f>A15/C15</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2.23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f>A16/C16</f>
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2.4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <f>A17/C17</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3.51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Windows Data.xlsx
+++ b/Excel/Windows Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Aircon\Aircon\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D1D134-2677-4146-8238-FDA28D728D5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ground Floor" sheetId="1" r:id="rId1"/>
@@ -12,10 +18,18 @@
     <sheet name="Third Floor" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ground Floor'!$A$1:$C$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ground Floor'!$A$1:$D$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Second Floor'!$A$1:$F$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Third Floor'!$A$1:$D$20</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -193,9 +207,6 @@
     <t>Hospital Main Lobby</t>
   </si>
   <si>
-    <t>Partition</t>
-  </si>
-  <si>
     <t>Examination/Treatment and Obs Room</t>
   </si>
   <si>
@@ -301,30 +312,12 @@
     <t>Sub-Ster Room</t>
   </si>
   <si>
-    <t>Partition 2 (Fixed)</t>
-  </si>
-  <si>
-    <t>Size Partition 1</t>
-  </si>
-  <si>
-    <t>Size Partition 2</t>
-  </si>
-  <si>
-    <t>Partition 1</t>
-  </si>
-  <si>
     <t>4L-3R</t>
   </si>
   <si>
     <t>0.6L-0.8R</t>
   </si>
   <si>
-    <t>Size of Partition</t>
-  </si>
-  <si>
-    <t>Partition Size</t>
-  </si>
-  <si>
     <t>5 Bed Ward</t>
   </si>
   <si>
@@ -359,12 +352,33 @@
   </si>
   <si>
     <t>Female / Male Toilet</t>
+  </si>
+  <si>
+    <t>Panel</t>
+  </si>
+  <si>
+    <t>Panel Size</t>
+  </si>
+  <si>
+    <t>Panel 2</t>
+  </si>
+  <si>
+    <t>Size Panel 1</t>
+  </si>
+  <si>
+    <t>Size Panel 2</t>
+  </si>
+  <si>
+    <t>Size of Panel</t>
+  </si>
+  <si>
+    <t>Maintenance Office Left</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -448,6 +462,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -458,7 +475,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,6 +486,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -517,7 +537,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -569,7 +589,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -763,44 +783,45 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="C1" s="8" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -814,8 +835,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -827,8 +848,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -840,8 +861,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
         <v>1.2</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -855,8 +876,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -868,10 +889,10 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
       <c r="B7" s="5" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="C7" s="7">
         <v>2</v>
@@ -881,8 +902,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -894,8 +915,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -907,8 +928,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -920,8 +941,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -933,8 +954,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
@@ -946,8 +967,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
@@ -959,8 +980,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
@@ -972,8 +993,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
@@ -985,8 +1006,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
         <v>1.4</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1000,8 +1021,8 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
@@ -1013,8 +1034,8 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
@@ -1026,8 +1047,8 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
@@ -1039,8 +1060,8 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
@@ -1052,8 +1073,8 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
@@ -1065,8 +1086,8 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
@@ -1078,8 +1099,8 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
@@ -1091,8 +1112,8 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
@@ -1104,8 +1125,8 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
@@ -1117,8 +1138,8 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
@@ -1130,8 +1151,8 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
@@ -1143,8 +1164,8 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
@@ -1156,8 +1177,8 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
       <c r="B29" s="5" t="s">
         <v>26</v>
       </c>
@@ -1169,8 +1190,8 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13">
         <v>0.6</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -1184,8 +1205,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
       <c r="B31" s="5" t="s">
         <v>27</v>
       </c>
@@ -1197,8 +1218,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
       <c r="B32" s="5" t="s">
         <v>28</v>
       </c>
@@ -1210,8 +1231,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13"/>
       <c r="B33" s="5" t="s">
         <v>29</v>
       </c>
@@ -1223,8 +1244,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13"/>
       <c r="B34" s="5" t="s">
         <v>30</v>
       </c>
@@ -1236,8 +1257,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
       <c r="B35" s="5" t="s">
         <v>31</v>
       </c>
@@ -1249,8 +1270,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
       <c r="B36" s="5" t="s">
         <v>32</v>
       </c>
@@ -1262,8 +1283,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13"/>
       <c r="B37" s="5" t="s">
         <v>33</v>
       </c>
@@ -1275,8 +1296,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13">
         <v>1.6</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -1290,8 +1311,8 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13"/>
       <c r="B39" s="5" t="s">
         <v>35</v>
       </c>
@@ -1303,8 +1324,8 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="13"/>
       <c r="B40" s="5" t="s">
         <v>36</v>
       </c>
@@ -1316,8 +1337,8 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="13"/>
       <c r="B41" s="5" t="s">
         <v>37</v>
       </c>
@@ -1329,7 +1350,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>2.4</v>
       </c>
@@ -1344,7 +1365,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>0.9</v>
       </c>
@@ -1359,7 +1380,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>2.44</v>
       </c>
@@ -1374,7 +1395,7 @@
         <v>0.40666666666666668</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>1.28</v>
       </c>
@@ -1389,7 +1410,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>1</v>
       </c>
@@ -1404,8 +1425,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="12">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="13">
         <v>2.4</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -1419,8 +1440,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="13"/>
       <c r="B48" s="5" t="s">
         <v>44</v>
       </c>
@@ -1432,8 +1453,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="13"/>
       <c r="B49" s="5" t="s">
         <v>45</v>
       </c>
@@ -1445,8 +1466,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="13"/>
       <c r="B50" s="5" t="s">
         <v>46</v>
       </c>
@@ -1458,8 +1479,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="13"/>
       <c r="B51" s="5" t="s">
         <v>47</v>
       </c>
@@ -1471,8 +1492,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="13"/>
       <c r="B52" s="5" t="s">
         <v>48</v>
       </c>
@@ -1484,7 +1505,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>4.2</v>
       </c>
@@ -1499,7 +1520,7 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>1.5</v>
       </c>
@@ -1514,7 +1535,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>3.35</v>
       </c>
@@ -1529,7 +1550,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <v>5.6</v>
       </c>
@@ -1544,8 +1565,8 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="12">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="13">
         <v>1.8</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -1559,8 +1580,8 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="13"/>
       <c r="B58" s="5" t="s">
         <v>54</v>
       </c>
@@ -1572,8 +1593,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="13"/>
       <c r="B59" s="5" t="s">
         <v>55</v>
       </c>
@@ -1585,12 +1606,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>2.2000000000000002</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="7">
         <v>1</v>
@@ -1601,6 +1622,15 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D60" xr:uid="{6D873DBB-698D-4DD3-A580-6B4D92B80D45}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="UltraSound CR"/>
+        <filter val="Ultrasound Left"/>
+        <filter val="Ultrasound Right"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A57:A59"/>
     <mergeCell ref="A2:A4"/>
@@ -1616,49 +1646,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="36.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="36.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>2.2999999999999998</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
@@ -1673,8 +1703,8 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
         <v>2.4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1687,34 +1717,34 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
       <c r="B4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="C6" s="3">
         <v>4</v>
@@ -1723,10 +1753,10 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
       <c r="B7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="3">
         <v>4</v>
@@ -1735,10 +1765,10 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
       <c r="B8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3">
         <v>4</v>
@@ -1747,12 +1777,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
         <v>0.6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -1761,35 +1791,35 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
       <c r="B10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
@@ -1797,12 +1827,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
         <v>1.4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
@@ -1811,10 +1841,10 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
       <c r="B14" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
@@ -1823,10 +1853,10 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
       <c r="B15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
@@ -1835,10 +1865,10 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
       <c r="B16" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -1847,10 +1877,10 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
       <c r="B17" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
@@ -1859,10 +1889,10 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
       <c r="B18" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
@@ -1871,12 +1901,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
         <v>1.2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -1885,10 +1915,10 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
       <c r="B20" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -1897,10 +1927,10 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
       <c r="B21" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
@@ -1909,10 +1939,10 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
       <c r="B22" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -1921,12 +1951,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -1935,12 +1965,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>2.7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -1949,12 +1979,12 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>1.95</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" s="3">
         <v>5</v>
@@ -1963,12 +1993,12 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>2.1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -1977,12 +2007,12 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="15">
         <v>0.8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
@@ -1991,10 +2021,10 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
       <c r="B28" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -2003,10 +2033,10 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
       <c r="B29" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
@@ -2015,10 +2045,10 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
       <c r="B30" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -2027,10 +2057,10 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="15"/>
       <c r="B31" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -2039,12 +2069,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="15">
         <v>1.6</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
@@ -2053,10 +2083,10 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
       <c r="B33" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33" s="3">
         <v>2</v>
@@ -2065,10 +2095,10 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="15"/>
       <c r="B34" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" s="3">
         <v>2</v>
@@ -2077,10 +2107,10 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="15"/>
       <c r="B35" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="3">
         <v>2</v>
@@ -2090,7 +2120,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F35"/>
+  <autoFilter ref="A1:F35" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="6">
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A3:A8"/>
@@ -2105,48 +2135,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2.2999999999999998</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2.4</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C3">
@@ -2156,11 +2187,11 @@
         <f>A3/C3</f>
         <v>0.6</v>
       </c>
-      <c r="K3" s="15"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2170,12 +2201,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2.7</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2184,14 +2215,14 @@
         <f>A5/C5</f>
         <v>2.7</v>
       </c>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1.4</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>76</v>
+      <c r="B6" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2201,9 +2232,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
-        <v>75</v>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2213,12 +2244,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3.33</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2228,12 +2259,12 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.6</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>70</v>
+      <c r="B9" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2243,9 +2274,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2255,12 +2286,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
         <v>1.2</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>79</v>
+      <c r="B11" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2270,9 +2301,10 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2282,9 +2314,10 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2294,12 +2327,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2309,12 +2342,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.8</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2324,12 +2357,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2.23</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2339,12 +2372,12 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2.4</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -2354,12 +2387,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2.5099999999999998</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2368,12 +2401,12 @@
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3.51</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2382,12 +2415,12 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2.1800000000000002</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2397,6 +2430,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D20" xr:uid="{D74649C4-4AB3-4D0F-A472-14444C36E57F}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Personel Dining's CR"/>
+        <filter val="Personel's Dining"/>
+        <filter val="Personel's Dining Right"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="A11:A13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>